--- a/DKSalaries_11052014_optimization.xlsx
+++ b/DKSalaries_11052014_optimization.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bsim\Dropbox\bball\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="16800" windowHeight="20460" activeTab="1"/>
   </bookViews>
@@ -91,7 +96,7 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1559,7 +1564,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1570,25 +1575,25 @@
   <dimension ref="A1:S177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1328125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.5" customWidth="1"/>
+    <col min="11" max="11" width="2.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.46484375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.46484375" customWidth="1"/>
     <col min="14" max="14" width="2.6640625" customWidth="1"/>
-    <col min="15" max="15" width="10.5" customWidth="1"/>
-    <col min="24" max="24" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.46484375" customWidth="1"/>
+    <col min="24" max="24" width="12.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1646,7 +1651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1712,7 +1717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1777,7 +1782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1836,7 +1841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1895,7 +1900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1947,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2006,7 +2011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2065,7 +2070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2124,7 +2129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2175,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2227,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -2279,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -2334,7 +2339,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -2389,7 +2394,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -2441,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -2493,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -2545,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2597,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -2649,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2701,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -2753,7 +2758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2805,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -2857,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2909,7 +2914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -2961,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -3013,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -3065,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -3117,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -3169,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -3221,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -3273,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -3325,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -3377,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -3429,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -3481,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -3533,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -3585,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -3637,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -3689,7 +3694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -3741,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -3793,7 +3798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -3845,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -3897,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -3949,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -4001,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -4053,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -4105,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -4157,7 +4162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -4209,7 +4214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -4261,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -4313,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -4364,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -4416,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -4468,7 +4473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -4520,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -4572,7 +4577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -4624,7 +4629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -4676,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -4728,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -4780,7 +4785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -4832,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -4884,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -4936,7 +4941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -4988,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -5040,7 +5045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -5092,7 +5097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -5144,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -5196,7 +5201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -5248,7 +5253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -5300,7 +5305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -5352,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -5404,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -5456,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -5508,7 +5513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -5560,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -5612,7 +5617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -5664,7 +5669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -5716,7 +5721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -5768,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -5820,7 +5825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -5872,7 +5877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -5924,7 +5929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -5976,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -6028,7 +6033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -6080,7 +6085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -6132,7 +6137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -6184,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -6236,7 +6241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -6288,7 +6293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -6340,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>12</v>
       </c>
@@ -6392,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -6444,7 +6449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -6496,7 +6501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -6548,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -6600,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -6652,7 +6657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -6704,7 +6709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -6756,7 +6761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -6808,7 +6813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -6860,7 +6865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -6912,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -6964,7 +6969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -7016,7 +7021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>11</v>
       </c>
@@ -7068,7 +7073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -7120,7 +7125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>12</v>
       </c>
@@ -7172,7 +7177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -7224,7 +7229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -7276,7 +7281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -7328,7 +7333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -7380,7 +7385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>11</v>
       </c>
@@ -7432,7 +7437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>12</v>
       </c>
@@ -7484,7 +7489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>12</v>
       </c>
@@ -7536,7 +7541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>12</v>
       </c>
@@ -7587,7 +7592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>12</v>
       </c>
@@ -7639,7 +7644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -7691,7 +7696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -7743,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -7795,7 +7800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -7847,7 +7852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -7899,7 +7904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -7951,7 +7956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -8003,7 +8008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -8055,7 +8060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>12</v>
       </c>
@@ -8107,7 +8112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>9</v>
       </c>
@@ -8159,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -8211,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -8263,7 +8268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -8315,7 +8320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>6</v>
       </c>
@@ -8367,7 +8372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -8419,7 +8424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -8471,7 +8476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -8523,7 +8528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>11</v>
       </c>
@@ -8575,7 +8580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -8627,7 +8632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -8679,7 +8684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>12</v>
       </c>
@@ -8731,7 +8736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>12</v>
       </c>
@@ -8783,7 +8788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -8835,7 +8840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>12</v>
       </c>
@@ -8887,7 +8892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>11</v>
       </c>
@@ -8939,7 +8944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>12</v>
       </c>
@@ -8991,7 +8996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -9043,7 +9048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -9095,7 +9100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -9147,7 +9152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -9199,7 +9204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>11</v>
       </c>
@@ -9251,7 +9256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -9303,7 +9308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -9355,7 +9360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -9407,7 +9412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -9459,7 +9464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -9511,7 +9516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -9563,7 +9568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -9615,7 +9620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>5</v>
       </c>
@@ -9667,7 +9672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>12</v>
       </c>
@@ -9719,7 +9724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -9771,7 +9776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>6</v>
       </c>
@@ -9823,7 +9828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>5</v>
       </c>
@@ -9875,7 +9880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>5</v>
       </c>
@@ -9927,7 +9932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>12</v>
       </c>
@@ -9979,7 +9984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>11</v>
       </c>
@@ -10031,7 +10036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -10083,7 +10088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -10135,7 +10140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>11</v>
       </c>
@@ -10187,7 +10192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>12</v>
       </c>
@@ -10239,7 +10244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -10291,7 +10296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>12</v>
       </c>
@@ -10343,7 +10348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -10395,7 +10400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>11</v>
       </c>
@@ -10447,7 +10452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>12</v>
       </c>
@@ -10499,7 +10504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>12</v>
       </c>
@@ -10551,7 +10556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>9</v>
       </c>
@@ -10603,7 +10608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>9</v>
       </c>
@@ -10655,7 +10660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>12</v>
       </c>
@@ -10707,7 +10712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>9</v>
       </c>
@@ -10759,7 +10764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>9</v>
       </c>
@@ -10811,7 +10816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -10884,15 +10889,15 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+      <selection activeCell="D1" sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>188</v>
       </c>
@@ -10906,7 +10911,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
         <v>140</v>
       </c>
@@ -10922,139 +10927,139 @@
         <v>199.29166666666666</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A3" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B13" si="0">C3/$D$2</f>
+        <f>C3/$D$2</f>
         <v>1.0537319673844867</v>
       </c>
       <c r="C3">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A4" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f>C4/$D$2</f>
         <v>1.02362533974493</v>
       </c>
       <c r="C4">
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A5" s="5" t="s">
         <v>192</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
+        <f>C5/$D$2</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="C5">
         <v>201.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A6" s="5" t="s">
         <v>193</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f>C6/$D$2</f>
         <v>0.95839431319255697</v>
       </c>
       <c r="C6">
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A7" s="5" t="s">
         <v>194</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f>C7/$D$2</f>
         <v>0.98348316955885429</v>
       </c>
       <c r="C7">
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A8" s="5" t="s">
         <v>195</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f>C8/$D$2</f>
         <v>0.93330545682625976</v>
       </c>
       <c r="C8">
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A9" s="5" t="s">
         <v>196</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f>C9/$D$2</f>
         <v>1.02362533974493</v>
       </c>
       <c r="C9">
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A10" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f>C10/$D$2</f>
         <v>0.97093874137570568</v>
       </c>
       <c r="C10">
         <v>193.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A11" s="5" t="s">
         <v>197</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f>C11/$D$2</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="C11">
         <v>201.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A12" s="5" t="s">
         <v>198</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f>C12/$D$2</f>
         <v>0.95839431319255697</v>
       </c>
       <c r="C12">
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A13" s="5" t="s">
         <v>199</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f>C13/$D$2</f>
         <v>1.0436964248379679</v>
       </c>
       <c r="C13">
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A14" s="5"/>
     </row>
   </sheetData>
